--- a/P9_1 Case Fatality.xlsx
+++ b/P9_1 Case Fatality.xlsx
@@ -5,19 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eithnesexton\Desktop\Model Oct 2020\For Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eithnesexton\Desktop\Model Stroke Paper R1 4 Mar\For Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8040" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8040" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Seminog Table" sheetId="1" r:id="rId1"/>
-    <sheet name="Case Fatality M" sheetId="2" r:id="rId2"/>
-    <sheet name="Case Fatality W" sheetId="4" r:id="rId3"/>
-    <sheet name="Source" sheetId="3" r:id="rId4"/>
-    <sheet name="Case Fatality NDPSS" sheetId="7" r:id="rId5"/>
-    <sheet name="Source NDPSS" sheetId="8" r:id="rId6"/>
+    <sheet name="Case Fatality M" sheetId="2" r:id="rId1"/>
+    <sheet name="Case Fatality W" sheetId="4" r:id="rId2"/>
+    <sheet name="Case Fatality NDPSS" sheetId="7" r:id="rId3"/>
+    <sheet name="MetaData" sheetId="10" r:id="rId4"/>
+    <sheet name="Data dictionary" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t xml:space="preserve">Age </t>
   </si>
@@ -46,15 +45,6 @@
     <t>n</t>
   </si>
   <si>
-    <t>Seminog OO, Scarborough P, Wright L, Rayner M, Goldacre MJ. Determinants of the decline in mortality from acute stroke in England: linked national database study of 795 869 adults. BMJ. 2019;365(l1778).</t>
-  </si>
-  <si>
-    <t>20-34</t>
-  </si>
-  <si>
-    <t>35-54</t>
-  </si>
-  <si>
     <t>55-64</t>
   </si>
   <si>
@@ -64,136 +54,109 @@
     <t>75-84</t>
   </si>
   <si>
-    <t xml:space="preserve">85+ </t>
-  </si>
-  <si>
-    <t>(10.4 to 12.6)</t>
-  </si>
-  <si>
-    <t>(11.6 to 13.5)</t>
-  </si>
-  <si>
-    <t>(16.3 to 18.0)</t>
-  </si>
-  <si>
-    <t>(22.6 to 24.2)</t>
-  </si>
-  <si>
-    <t>(33.1 to 35.5)</t>
-  </si>
-  <si>
-    <t>(5.9 to 13.9)</t>
-  </si>
-  <si>
-    <t>(10.1 to 12.9)</t>
-  </si>
-  <si>
-    <t>(13.7 to 16.4)</t>
-  </si>
-  <si>
-    <t>(17.0 to 19.0)</t>
-  </si>
-  <si>
-    <t>(25.1 to 26.6)</t>
-  </si>
-  <si>
-    <t>(7.7 to 15.6)</t>
-  </si>
-  <si>
-    <t>(37.4 to 39.1)</t>
-  </si>
-  <si>
-    <t>Seminog Table 2</t>
-  </si>
-  <si>
-    <t>Seminog et al Table 1</t>
-  </si>
-  <si>
-    <t>Men</t>
-  </si>
-  <si>
-    <t>Women</t>
-  </si>
-  <si>
-    <t>Age 35-54 estimate applied to 40-54</t>
-  </si>
-  <si>
-    <t>85+ estimate applied to 85-89</t>
-  </si>
-  <si>
     <t>40-54</t>
   </si>
   <si>
     <t>85-89</t>
   </si>
   <si>
-    <t>Case fatality rates by age - 2010</t>
-  </si>
-  <si>
-    <t>Number of events by age - 2010</t>
-  </si>
-  <si>
-    <t>Pr</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
     <t>80-89</t>
   </si>
   <si>
     <t>&lt;80</t>
   </si>
   <si>
-    <t>North Dublin, December 1, 2005–November 30, 2006</t>
-  </si>
-  <si>
-    <t>Gold standard population ascertainment study</t>
-  </si>
-  <si>
-    <t>Case fatality defined as mRS = 6, ascertained post-stroke, at 7 days, or at 28 days</t>
-  </si>
-  <si>
-    <t>First ever strokes, aged 40-89, with outcome data at 28 days, n=327</t>
-  </si>
-  <si>
-    <t>Base Case estimates for Case Fatality</t>
-  </si>
-  <si>
-    <t>The North Dublin Population Stroke Study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access to data obtained via study investigators: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelly, P. J., Crispino, G., Sheehan, O., Kelly, L., Marnane, M., Merwick, A., Hannon, N., Ní Chróinín, D., Callaly, E., Harris, D., Horgan, G., Williams, E. B., Duggan, J., Kyne, L., McCormack, P., Dolan, E., Williams, D., Moroney, J., Kelleher, C., &amp; Daly, L. (2012). </t>
-  </si>
-  <si>
-    <t>Incidence, event rates, and early outcome of stroke in Dublin, Ireland: The north dublin population stroke study. Stroke, 43(8), 2042–2047. https://doi.org/10.1161/STROKEAHA.111.645721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two linked national datasets of routine data, hospital episode statistics (HES) and national mortality statistics. </t>
-  </si>
-  <si>
-    <t>Strokes were selected using the ICD-10</t>
-  </si>
-  <si>
-    <t>(international classification of diseases, 10th revision) codes I61-I64 as the primary diagnosis on a hospital record or as the certified underlying cause of death</t>
-  </si>
-  <si>
     <t>Case fatality was calculated by dividing the total number of deaths that occurred within 30 days after hospital admission for stroke, and included out-of-hospital deaths, by the total number of stroke events, multiplied by 100 and expressed as a percentage.</t>
   </si>
   <si>
-    <t xml:space="preserve">The database provides nearly complete coverage, except for private hospitals, of all patients admitted to hospital for stroke events in England. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Published Data: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimates obtained from Table 1 </t>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>NDPSS</t>
+  </si>
+  <si>
+    <t>Worksheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference information or contact name/institution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The North Dublin Population Stroke Study. Kelly et al. (2012) Incidence, event rates, and early outcome of stroke in Dublin, Ireland: The north dublin population stroke study. Stroke, 43(8), 2042–2047. https://doi.org/10.1161/STROKEAHA.111.645721. Access to data obtained via the corresponding author. </t>
+  </si>
+  <si>
+    <t>Population represented</t>
+  </si>
+  <si>
+    <t>Data collection method</t>
+  </si>
+  <si>
+    <t>Gold standard population ascertainment study - see Kelly et al (2012) for details</t>
+  </si>
+  <si>
+    <t>Year(s) of data collection</t>
+  </si>
+  <si>
+    <t>December 1, 2005–November 30, 2006</t>
+  </si>
+  <si>
+    <t>Sex and age range</t>
+  </si>
+  <si>
+    <t>Men and Women aged 40-89</t>
+  </si>
+  <si>
+    <t>Diagnostic criteria (stroke)</t>
+  </si>
+  <si>
+    <t>Stroke was defined according to the WHO definition</t>
+  </si>
+  <si>
+    <t>Sample size</t>
+  </si>
+  <si>
+    <t>Seminog et al 2019</t>
+  </si>
+  <si>
+    <t>Case Fatality M; Case Fatality W</t>
+  </si>
+  <si>
+    <t>Seminog OO, Scarborough P, Wright L, Rayner M, Goldacre MJ. Determinants of the decline in mortality from acute stroke in England: linked national database study of 795 869 adults. BMJ. 2019;365(l1778). https://doi.org/10.1136/bmj.l1778. Table 1.</t>
+  </si>
+  <si>
+    <t>Patients admitted to public hospitals for stroke events in England</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two linked national routine datasets: hospital episode statistics (HES) and national mortality statistics. </t>
+  </si>
+  <si>
+    <t>Men and Women aged 35+</t>
+  </si>
+  <si>
+    <t>Measurement method (case fatality)</t>
+  </si>
+  <si>
+    <t>Strokes were selected using the ICD-10 (international classification of diseases, 10th revision) codes I61-I64 as the primary diagnosis on a hospital record or as the certified underlying cause of death</t>
+  </si>
+  <si>
+    <t>Case Fatality NDPSS</t>
+  </si>
+  <si>
+    <t>People with first-ever incident stroke in the North Dublin area of Ireland in 2005/2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case fatality defined as modified Rankin Scale = 6, ascertained post-stroke, at 7 days, or at 28 days. </t>
+  </si>
+  <si>
+    <t>Variable name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Case fatality at 1 month post-stroke</t>
+  </si>
+  <si>
+    <t>Total sample size</t>
   </si>
 </sst>
 </file>
@@ -209,8 +172,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -240,11 +204,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,296 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>11.2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1">
-        <v>304</v>
-      </c>
-      <c r="F4" s="1">
-        <v>248</v>
-      </c>
-      <c r="I4">
-        <f>B4/100</f>
-        <v>0.11199999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>11.5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3597</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2237</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ref="I5:I9" si="0">B5/100</f>
-        <v>0.115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>12.5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5640</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3045</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1">
-        <v>9900</v>
-      </c>
-      <c r="F7" s="1">
-        <v>7184</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>0.17100000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>23.4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1">
-        <v>14513</v>
-      </c>
-      <c r="F8" s="1">
-        <v>16760</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>0.23399999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1">
-        <v>9495</v>
-      </c>
-      <c r="F9" s="1">
-        <v>20944</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>0.34299999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12">
-        <f>B12/100</f>
-        <v>9.3000000000000013E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>11.4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13">
-        <f t="shared" ref="I13:I17" si="1">B13/100</f>
-        <v>0.114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <v>25.9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>0.25900000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>0.38299999999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" activeCellId="1" sqref="A1:A6 C1:C6"/>
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -864,7 +540,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -878,7 +554,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -892,7 +568,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -906,7 +582,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -920,7 +596,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -938,7 +614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -968,7 +644,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -982,7 +658,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -996,7 +672,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1010,7 +686,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1024,7 +700,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1042,68 +718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1133,7 +748,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1147,7 +762,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1165,58 +780,177 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2010</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>93867</v>
+      </c>
+      <c r="C10">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>